--- a/public/Car.xlsx
+++ b/public/Car.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nepac\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quang.tranthanh/Sites/quan-ly-lich-cong-tac-fe/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51607832-1472-4991-992A-44AECC5DB2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD7FAE-D505-2648-9CF6-D50F67032CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="9420" xr2:uid="{CB26B8A4-5C71-4972-94CD-C3BB99494958}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" xr2:uid="{CB26B8A4-5C71-4972-94CD-C3BB99494958}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>ten_xe</t>
   </si>
@@ -56,9 +55,6 @@
     <t>so_cho</t>
   </si>
   <si>
-    <t>dac_diem_mac_dinh</t>
-  </si>
-  <si>
     <t>so_dau_xang_tieu_thu</t>
   </si>
   <si>
@@ -68,51 +64,30 @@
     <t>han_dang_kiem_tiep_theo</t>
   </si>
   <si>
-    <t>anh_xe</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>1212-12-12</t>
-  </si>
-  <si>
-    <t>images/Lexus-LS-500-2018.jpg</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Honda</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>Lexus</t>
+    <t>so_may</t>
+  </si>
+  <si>
+    <t>ngay_sua_chua_lon_gan_nhat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -135,17 +110,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -162,9 +134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +174,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -308,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -450,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,28 +430,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4099E2-9FAE-42EE-8AD6-07F827FCF761}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,96 +471,54 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2">
         <v>123</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>123</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
+      <c r="I2" s="1">
+        <v>45457</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45457</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45457</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="http://127.0.0.1:8000/images/Lexus-LS-500-2018.jpg" xr:uid="{FD5D7826-22C1-4A94-9212-EC86395B2ACA}"/>
-    <hyperlink ref="K3" r:id="rId2" display="http://127.0.0.1:8000/images/Lexus-LS-500-2018.jpg" xr:uid="{5AB34F2A-5716-4101-87B4-C9F668F6EF4B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/Car.xlsx
+++ b/public/Car.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quang.tranthanh/Sites/quan-ly-lich-cong-tac-fe/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD7FAE-D505-2648-9CF6-D50F67032CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA281AB-0081-E84E-9F0A-803D4F4A039B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" xr2:uid="{CB26B8A4-5C71-4972-94CD-C3BB99494958}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ten_xe</t>
   </si>
@@ -43,9 +43,6 @@
     <t>mau_xe</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>bien_so_xe</t>
   </si>
   <si>
@@ -64,19 +61,28 @@
     <t>han_dang_kiem_tiep_theo</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Honda</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>so_may</t>
   </si>
   <si>
     <t>ngay_sua_chua_lon_gan_nhat</t>
+  </si>
+  <si>
+    <t>ten_dang_nhap_lai_xe</t>
+  </si>
+  <si>
+    <t>lebach</t>
+  </si>
+  <si>
+    <t>Trắng ánh kim</t>
+  </si>
+  <si>
+    <t>10A-12321</t>
+  </si>
+  <si>
+    <t>10.4</t>
   </si>
 </sst>
 </file>
@@ -433,18 +439,18 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
@@ -459,54 +465,57 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>9283639372</v>
       </c>
       <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>123</v>
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>9283639372</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
       <c r="I2" s="1">
         <v>45457</v>
